--- a/prot/356379915/Переход трубопровода через р. Енисей/OCR/1063.xlsx
+++ b/prot/356379915/Переход трубопровода через р. Енисей/OCR/1063.xlsx
@@ -3342,7 +3342,7 @@
         <v>0</v>
       </c>
       <c r="D28" s="23" t="n">
-        <v>1.036632272822585</v>
+        <v>1.03599641624888</v>
       </c>
       <c r="E28" s="12" t="n"/>
       <c r="F28" s="31" t="n"/>
@@ -3356,43 +3356,43 @@
         <v>0.0125</v>
       </c>
       <c r="O28" s="81" t="n">
-        <v>1.234382580316346</v>
+        <v>1.232780559686891</v>
       </c>
       <c r="P28" s="81" t="n">
-        <v>0.2568378477840259</v>
+        <v>0.2570926250767652</v>
       </c>
       <c r="Q28" s="81" t="n">
-        <v>0.9092756480205342</v>
+        <v>0.9078474691811353</v>
       </c>
       <c r="R28" s="81" t="n">
-        <v>0.2568378477840259</v>
+        <v>0.2570926250767652</v>
       </c>
       <c r="S28" s="81" t="n">
-        <v>0.9092756480205342</v>
+        <v>0.9078474691811353</v>
       </c>
       <c r="T28" s="81" t="n">
-        <v>0.2568378477840259</v>
+        <v>0.2570926250767652</v>
       </c>
       <c r="U28" s="81" t="n">
-        <v>0.9092756480205342</v>
+        <v>0.9078474691811353</v>
       </c>
       <c r="V28" s="81" t="n">
-        <v>0.4618311775537001</v>
+        <v>0.4613720049314211</v>
       </c>
       <c r="W28" s="81" t="n">
-        <v>0.8919317101369081</v>
+        <v>0.8905181620802178</v>
       </c>
       <c r="X28" s="81" t="n">
-        <v>0.4618311775537001</v>
+        <v>0.4613720049314211</v>
       </c>
       <c r="Y28" s="81" t="n">
-        <v>0.8919317101369081</v>
+        <v>0.8905181620802178</v>
       </c>
       <c r="Z28" s="81" t="n">
         <v>0.0125</v>
       </c>
       <c r="AA28" s="81" t="n">
-        <v>1.087973235870531</v>
+        <v>1.087059530018569</v>
       </c>
       <c r="AB28" s="81" t="n"/>
       <c r="AC28" s="81" t="n"/>
@@ -3410,10 +3410,10 @@
         <v>0.025</v>
       </c>
       <c r="C29" s="35" t="n">
-        <v>0.03017510817972131</v>
+        <v>0.03047789702434283</v>
       </c>
       <c r="D29" s="23" t="n">
-        <v>1.015509697096781</v>
+        <v>1.01466188833184</v>
       </c>
       <c r="E29" s="12" t="n"/>
       <c r="F29" s="31" t="n"/>
@@ -3427,34 +3427,34 @@
         <v>6.4</v>
       </c>
       <c r="O29" s="81" t="n">
-        <v>0.6425175019386767</v>
+        <v>0.6410781545214681</v>
       </c>
       <c r="P29" s="81" t="n">
         <v>0.2</v>
       </c>
       <c r="Q29" s="81" t="n">
-        <v>0.9092756480205342</v>
+        <v>0.9078474691811353</v>
       </c>
       <c r="R29" s="81" t="n">
         <v>0.2</v>
       </c>
       <c r="S29" s="81" t="n">
-        <v>0.916669195776578</v>
+        <v>0.9152892538827297</v>
       </c>
       <c r="T29" s="81" t="n">
         <v>0.2</v>
       </c>
       <c r="U29" s="81" t="n">
-        <v>0.924062743532622</v>
+        <v>0.922731038584324</v>
       </c>
       <c r="V29" s="81" t="n">
-        <v>0.4618311775537001</v>
+        <v>0.4613720049314211</v>
       </c>
       <c r="W29" s="81" t="n">
-        <v>0.8919317101369081</v>
+        <v>0.8905181620802178</v>
       </c>
       <c r="X29" s="81" t="n">
-        <v>0.4618311775537001</v>
+        <v>0.4613720049314211</v>
       </c>
       <c r="Y29" s="81" t="n">
         <v>0</v>
@@ -3463,7 +3463,7 @@
         <v>4.00625</v>
       </c>
       <c r="AA29" s="81" t="n">
-        <v>0.7468681029440498</v>
+        <v>0.7450845221055323</v>
       </c>
       <c r="AB29" s="81" t="n"/>
       <c r="AC29" s="81" t="n"/>
@@ -3481,10 +3481,10 @@
         <v>0.05</v>
       </c>
       <c r="C30" s="35" t="n">
-        <v>0.04023347757296175</v>
+        <v>0.0406371960324571</v>
       </c>
       <c r="D30" s="23" t="n">
-        <v>1.002946981175703</v>
+        <v>1.001840895594364</v>
       </c>
       <c r="E30" s="12" t="n"/>
       <c r="F30" s="31" t="n"/>
@@ -3498,34 +3498,34 @@
         <v>8</v>
       </c>
       <c r="O30" s="81" t="n">
-        <v>0.6213466133706231</v>
+        <v>0.619913084739782</v>
       </c>
       <c r="P30" s="81" t="n">
         <v>8</v>
       </c>
       <c r="Q30" s="81" t="n">
-        <v>0.9092756480205342</v>
+        <v>0.9078474691811353</v>
       </c>
       <c r="R30" s="81" t="n">
         <v>8</v>
       </c>
       <c r="S30" s="81" t="n">
-        <v>0.8076292139990856</v>
+        <v>0.805971201963434</v>
       </c>
       <c r="T30" s="81" t="n">
         <v>8</v>
       </c>
       <c r="U30" s="81" t="n">
-        <v>0.705982779977637</v>
+        <v>0.7040949347457327</v>
       </c>
       <c r="V30" s="81" t="n">
-        <v>0.4618311775537001</v>
+        <v>0.4613720049314211</v>
       </c>
       <c r="W30" s="81" t="n">
-        <v>0.8919317101369081</v>
+        <v>0.8905181620802178</v>
       </c>
       <c r="X30" s="81" t="n">
-        <v>0.4618311775537001</v>
+        <v>0.4613720049314211</v>
       </c>
       <c r="Y30" s="81" t="n">
         <v>0</v>
@@ -3534,7 +3534,7 @@
         <v>8</v>
       </c>
       <c r="AA30" s="81" t="n">
-        <v>0.7059827799776368</v>
+        <v>0.7040949347457325</v>
       </c>
       <c r="AB30" s="81" t="n"/>
       <c r="AC30" s="81" t="n"/>
@@ -3552,10 +3552,10 @@
         <v>0.1</v>
       </c>
       <c r="C31" s="35" t="n">
-        <v>0.04621572324966544</v>
+        <v>0.04674243066935056</v>
       </c>
       <c r="D31" s="23" t="n">
-        <v>0.9650403666170994</v>
+        <v>0.9638131614428853</v>
       </c>
       <c r="E31" s="12" t="n"/>
       <c r="F31" s="31" t="n"/>
@@ -3595,10 +3595,10 @@
         <v>0.2</v>
       </c>
       <c r="C32" s="35" t="n">
-        <v>0.06426649208709559</v>
+        <v>0.064850875503388</v>
       </c>
       <c r="D32" s="23" t="n">
-        <v>0.924062743532622</v>
+        <v>0.922731038584324</v>
       </c>
       <c r="E32" s="12" t="n"/>
       <c r="F32" s="31" t="n"/>
@@ -3638,10 +3638,10 @@
         <v>0.4</v>
       </c>
       <c r="C33" s="35" t="n">
-        <v>0.08377964593684673</v>
+        <v>0.08441379115032192</v>
       </c>
       <c r="D33" s="23" t="n">
-        <v>0.876831729942179</v>
+        <v>0.8754293675931302</v>
       </c>
       <c r="E33" s="12" t="n"/>
       <c r="F33" s="31" t="n"/>
@@ -3681,10 +3681,10 @@
         <v>0.8</v>
       </c>
       <c r="C34" s="35" t="n">
-        <v>0.1062706047894386</v>
+        <v>0.1069383963842238</v>
       </c>
       <c r="D34" s="23" t="n">
-        <v>0.8232290331114056</v>
+        <v>0.8217904959167531</v>
       </c>
       <c r="G34" s="31" t="n"/>
       <c r="H34" s="31" t="n"/>
@@ -3722,10 +3722,10 @@
         <v>1.6</v>
       </c>
       <c r="C35" s="35" t="n">
-        <v>0.1317956985183783</v>
+        <v>0.1324807162301176</v>
       </c>
       <c r="D35" s="23" t="n">
-        <v>0.7654749950698159</v>
+        <v>0.7640227494402141</v>
       </c>
       <c r="E35" s="12" t="n"/>
       <c r="F35" s="73" t="inlineStr">
@@ -3738,7 +3738,7 @@
       <c r="I35" s="56" t="n"/>
       <c r="J35" s="57" t="n"/>
       <c r="K35" s="46" t="n">
-        <v>0.4618311775537001</v>
+        <v>0.4613720049314211</v>
       </c>
       <c r="L35" s="13" t="n"/>
       <c r="N35" s="81" t="n"/>
@@ -3771,10 +3771,10 @@
         <v>3.2</v>
       </c>
       <c r="C36" s="35" t="n">
-        <v>0.1592976213953258</v>
+        <v>0.1599891669332314</v>
       </c>
       <c r="D36" s="23" t="n">
-        <v>0.7050291640449293</v>
+        <v>0.7035777775438445</v>
       </c>
       <c r="E36" s="12" t="n"/>
       <c r="F36" s="67" t="inlineStr">
@@ -3820,10 +3820,10 @@
         <v>6.4</v>
       </c>
       <c r="C37" s="35" t="n">
-        <v>0.1880813504547956</v>
+        <v>0.1887724868838836</v>
       </c>
       <c r="D37" s="23" t="n">
-        <v>0.6425175019386767</v>
+        <v>0.6410781545214681</v>
       </c>
       <c r="E37" s="12" t="n"/>
       <c r="F37" s="67" t="inlineStr">
@@ -3836,7 +3836,7 @@
       <c r="I37" s="49" t="n"/>
       <c r="J37" s="50" t="n"/>
       <c r="K37" s="45" t="n">
-        <v>9.236623551074002</v>
+        <v>9.227440098628421</v>
       </c>
       <c r="L37" s="13" t="n"/>
       <c r="N37" s="81" t="n"/>
@@ -3869,10 +3869,10 @@
         <v>8</v>
       </c>
       <c r="C38" s="36" t="n">
-        <v>0.2178488086006302</v>
+        <v>0.2185342121326343</v>
       </c>
       <c r="D38" s="25" t="n">
-        <v>0.6213466133706231</v>
+        <v>0.619913084739782</v>
       </c>
       <c r="E38" s="12" t="n"/>
       <c r="F38" s="68" t="inlineStr">
@@ -3885,7 +3885,7 @@
       <c r="I38" s="69" t="n"/>
       <c r="J38" s="70" t="n"/>
       <c r="K38" s="47" t="n">
-        <v>0.4118311775537001</v>
+        <v>0.4113720049314211</v>
       </c>
       <c r="L38" s="13" t="n"/>
       <c r="N38" s="81" t="n"/>
@@ -4191,7 +4191,7 @@
         <v>0.45</v>
       </c>
       <c r="O45" s="91" t="n">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="P45" s="88" t="n">
         <v>0</v>
@@ -4203,7 +4203,7 @@
         <v>0.45</v>
       </c>
       <c r="S45" s="88" t="n">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="T45" s="88" t="n"/>
       <c r="U45" s="81" t="n"/>
@@ -4229,10 +4229,10 @@
         <v>0.0125</v>
       </c>
       <c r="C46" s="35" t="n">
-        <v>0.1885944261232582</v>
+        <v>0.1904868564021427</v>
       </c>
       <c r="D46" s="37" t="n">
-        <v>0.1885944261232582</v>
+        <v>0.1904868564021427</v>
       </c>
       <c r="E46" s="31" t="n"/>
       <c r="F46" s="31" t="n"/>
@@ -4252,13 +4252,13 @@
         <v>0.45</v>
       </c>
       <c r="Q46" s="87" t="n">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="R46" s="88" t="n">
         <v>0.45</v>
       </c>
       <c r="S46" s="88" t="n">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="T46" s="88" t="n"/>
       <c r="U46" s="81" t="n"/>
@@ -4284,10 +4284,10 @@
         <v>0.025</v>
       </c>
       <c r="C47" s="35" t="n">
-        <v>0.1885944261232582</v>
+        <v>0.1904868564021427</v>
       </c>
       <c r="D47" s="37" t="n">
-        <v>0.3771888522465164</v>
+        <v>0.3809737128042853</v>
       </c>
       <c r="E47" s="31" t="n"/>
       <c r="F47" s="31" t="n"/>
@@ -4327,10 +4327,10 @@
         <v>0.05</v>
       </c>
       <c r="C48" s="35" t="n">
-        <v>0.2243342128763886</v>
+        <v>0.2289462988835049</v>
       </c>
       <c r="D48" s="37" t="n">
-        <v>0.601523065122905</v>
+        <v>0.6099200116877902</v>
       </c>
       <c r="E48" s="31" t="n"/>
       <c r="F48" s="31" t="n"/>
@@ -4370,10 +4370,10 @@
         <v>0.1</v>
       </c>
       <c r="C49" s="35" t="n">
-        <v>1.353807662807261</v>
+        <v>1.358133362552808</v>
       </c>
       <c r="D49" s="37" t="n">
-        <v>1.955330727930166</v>
+        <v>1.968053374240598</v>
       </c>
       <c r="E49" s="31" t="n"/>
       <c r="F49" s="31" t="n"/>
@@ -4413,10 +4413,10 @@
         <v>0.2</v>
       </c>
       <c r="C50" s="35" t="n">
-        <v>2.926973077462671</v>
+        <v>2.934437347040089</v>
       </c>
       <c r="D50" s="37" t="n">
-        <v>4.882303805392837</v>
+        <v>4.902490721280687</v>
       </c>
       <c r="E50" s="31" t="n"/>
       <c r="F50" s="31" t="n"/>
@@ -4456,10 +4456,10 @@
         <v>0.4</v>
       </c>
       <c r="C51" s="35" t="n">
-        <v>6.747287655777571</v>
+        <v>6.75738157017055</v>
       </c>
       <c r="D51" s="37" t="n">
-        <v>11.62959146117041</v>
+        <v>11.65987229145124</v>
       </c>
       <c r="E51" s="31" t="n"/>
       <c r="F51" s="31" t="n"/>
@@ -4499,10 +4499,10 @@
         <v>0.8</v>
       </c>
       <c r="C52" s="35" t="n">
-        <v>15.31505623736383</v>
+        <v>15.32539190753631</v>
       </c>
       <c r="D52" s="37" t="n">
-        <v>26.94464769853424</v>
+        <v>26.98526419898754</v>
       </c>
       <c r="E52" s="31" t="n"/>
       <c r="F52" s="73" t="inlineStr">
@@ -4548,10 +4548,10 @@
         <v>1.6</v>
       </c>
       <c r="C53" s="35" t="n">
-        <v>33.00230745233697</v>
+        <v>33.01014084373659</v>
       </c>
       <c r="D53" s="37" t="n">
-        <v>59.94695515087121</v>
+        <v>59.99540504272413</v>
       </c>
       <c r="E53" s="31" t="n"/>
       <c r="F53" s="67" t="inlineStr">
@@ -4597,10 +4597,10 @@
         <v>3.2</v>
       </c>
       <c r="C54" s="35" t="n">
-        <v>69.08094974272763</v>
+        <v>69.0799678815652</v>
       </c>
       <c r="D54" s="37" t="n">
-        <v>129.0279048935988</v>
+        <v>129.0753729242893</v>
       </c>
       <c r="E54" s="31" t="n"/>
       <c r="F54" s="67" t="inlineStr">
@@ -4646,10 +4646,10 @@
         <v>6.4</v>
       </c>
       <c r="C55" s="36" t="n">
-        <v>142.8837991000057</v>
+        <v>142.8562811940035</v>
       </c>
       <c r="D55" s="38" t="n">
-        <v>271.9117039936046</v>
+        <v>271.9316541182928</v>
       </c>
       <c r="E55" s="31" t="n"/>
       <c r="F55" s="68" t="inlineStr">
@@ -4695,7 +4695,7 @@
         <v>8</v>
       </c>
       <c r="C56" s="31" t="n">
-        <v>72.58590366189782</v>
+        <v>72.56595353720962</v>
       </c>
       <c r="D56" s="31" t="n">
         <v>344.4976076555024</v>
